--- a/T.I/Requisitos.xlsx
+++ b/T.I/Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\FACULDADE\Pesquisa e Inovação\trabalho-individual-abner-1cco\T.I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\FACULDADE\Pesquisa e Inovação\Individual - Oficial\Individual-Oficial-Abner\T.I\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -74,10 +74,16 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
     <t>Desejável</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>O site terá uma página com vetores de repetição para a criação de um Ranking de músicas de um álbum,  e verá links de playlists do Spotify</t>
+  </si>
+  <si>
+    <t>As métricas serão apresentadas estaticamente, juntamente à página de Avaliação.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,11 +209,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -227,13 +244,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:O11"/>
+  <dimension ref="E1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,11 +556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="5:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E2" s="6" t="s">
@@ -597,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -622,9 +642,9 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
@@ -645,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
@@ -656,6 +676,28 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/T.I/Requisitos.xlsx
+++ b/T.I/Requisitos.xlsx
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,30 +106,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="0"/>
+      <name val="Metal Lord"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Metal Lord"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,24 +150,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66100E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD53B3B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,74 +190,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,43 +520,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="5:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="5:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1"/>
@@ -602,102 +566,102 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="5:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="5:15" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="5:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="5:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="5:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="5:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
